--- a/scrap_python/info.xlsx
+++ b/scrap_python/info.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,130 +454,102 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">大连工业大学 材料科学与工程（高分子材料） 2022年招收考研调剂（非官方）
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">四川轻化工大学（原四川理工学院）材料科学与工程学院肖丽丽副教授招收硕士研究生
 </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>大连工大</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">工学 -&gt; 材料科学与工程  </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2022-01-24 08:51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15066212-1</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>四川理工</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 材料科学与工程  -&gt; 材料物理与化学</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2022-01-26 11:11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15068743-1</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">韩国光云大学全额奖学金纳米光电实验室硕士博士招生
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">华北电力大学氢能源材料课题组吕玮老师招收2022年调剂生
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>华北电力大学（北京）</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 材料科学与工程  -&gt; 材料物理与化学</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2022-01-24 08:09</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15066183-1</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2022-01-26 10:59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15068731-1</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">大连工业大学 材料科学与工程（高分子材料） 2022年招收考研调剂（非官方）
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">招收有志于从事面向机器学习，结构优化，可靠性设计相关理论和软件开发相关同学
 </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>大连工大</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">工学 -&gt; 材料科学与工程  </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2022-01-24 08:51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15066212-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">韩国光云大学全额奖学金纳米光电实验室硕士博士招生
-</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2022-01-24 08:09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15066183-1</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>湖南大学</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 机械工程  -&gt; 车辆工程</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2022-01-26 10:34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15068705-1</t>
         </is>
       </c>
     </row>
@@ -592,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,10 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/scrap_python/info.xlsx
+++ b/scrap_python/info.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,171 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>http://muchong.com/t-15068705-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">华南理工大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>华南理工大学</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 力学  -&gt; 工程力学</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2022-01-27 12:33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15069810-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京化工大学Jens Nielsen院士团队招收硕士研究生
+</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>北京化工大学</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 生物工程  -&gt; 遗传学</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2022-01-27 11:16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15069761-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">上海海洋大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>上海海洋大学</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农学 -&gt; 水产  -&gt; 渔业资源</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2022-01-28 04:05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15070397-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">上海海洋大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>上海海洋大学</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 海洋科学  -&gt; 海洋生物学</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2022-01-28 04:04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15070396-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">上海海洋大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>上海海洋大学</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 海洋科学  -&gt; 物理海洋学</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2022-01-28 04:01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15070395-1</t>
         </is>
       </c>
     </row>
@@ -564,7 +729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +769,10 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/scrap_python/info.xlsx
+++ b/scrap_python/info.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,6 +715,204 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>http://muchong.com/t-15070395-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【韩国-5年制硕博连读招生】韩国光云大学-纳米应用中心光电子研究室-全奖招生
+</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>清华大学</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 电子科学与技术  -&gt; 电磁场与微波技术</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2022-01-28 09:53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15070528-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">上海海洋大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>上海海洋大学</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 海洋科学  -&gt; 物理海洋学</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-01-28 04:01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15070395-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">高效微纳米储能材料与产业化推进实验室•苏州  招收硕士研究生
+</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>苏州科技大学</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-01-29 11:49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15071244-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">高效微纳米储能材料与产业化推进实验室•苏州  招收硕士研究生
+</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>苏州科技大学</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2022-01-29 11:49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15071244-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【韩国-5年制硕博连读招生】韩国光云大学-纳米应用中心光电子研究室-全奖招生
+</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>清华大学</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 光学工程  </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2022-01-29 15:14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15071338-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">天津商业大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>天津商业大学</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 食品科学与工程  -&gt; 食品科学</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2022-02-04 10:22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15073710-1</t>
         </is>
       </c>
     </row>
@@ -729,7 +927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +971,56 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>云南中医药大学考研调剂信息回顾（2021年）</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>云南中医药大学</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>http://www.chinakaoyan.com//tiaoji/schooldetail/id/32793.shtml</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>湖北经济学院考研调剂信息回顾（2021年）</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>湖北经济学院</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>http://www.chinakaoyan.com//tiaoji/schooldetail/id/32791.shtml</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/scrap_python/info.xlsx
+++ b/scrap_python/info.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,6 +913,35 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>http://muchong.com/t-15073710-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">管理类专业A区/B区学校，调剂预约  仅限专硕！
+</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2022-02-13 09:51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15082689-1</t>
         </is>
       </c>
     </row>
@@ -927,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,6 +1050,7 @@
       </c>
     </row>
     <row r="13"/>
+    <row r="14"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/scrap_python/info.xlsx
+++ b/scrap_python/info.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="小木虫" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中国考研网" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="51考研网" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,18 +458,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">四川轻化工大学（原四川理工学院）材料科学与工程学院肖丽丽副教授招收硕士研究生
+          <t xml:space="preserve">陕西科大接收调剂研究生
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>四川理工</t>
+          <t>陕西科大</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工学 -&gt; 材料科学与工程  -&gt; 材料物理与化学</t>
+          <t>工学 -&gt; 轻工技术与工程  -&gt; 制浆造纸工程</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -478,470 +479,139 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-01-26 11:11</t>
+          <t>2022-02-18 10:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://muchong.com/t-15068743-1</t>
+          <t>http://muchong.com/t-15090119-1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">华北电力大学氢能源材料课题组吕玮老师招收2022年调剂生
+          <t xml:space="preserve">陆军军医大学王锋超课题组欢迎考研学生调剂或后续报考
 </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>华北电力大学（北京）</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工学 -&gt; 材料科学与工程  -&gt; 材料物理与化学</t>
+          <t>医学 -&gt; 公共卫生与预防医学  -&gt; 军事预防医学</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-01-26 10:59</t>
+          <t>2022-02-18 10:17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>http://muchong.com/t-15068731-1</t>
+          <t>http://muchong.com/t-15090077-1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">招收有志于从事面向机器学习，结构优化，可靠性设计相关理论和软件开发相关同学
+          <t xml:space="preserve">上海海洋大学大数据和遥感方向接收硕士调剂
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>湖南大学</t>
+          <t>上海海洋大学</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工学 -&gt; 机械工程  -&gt; 车辆工程</t>
+          <t>理学 -&gt; 计算机科学与技术  -&gt; 计算机应用技术</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-01-26 10:34</t>
+          <t>2022-02-18 10:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>http://muchong.com/t-15068705-1</t>
+          <t>http://muchong.com/t-15090045-1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">华南理工大学接收调剂研究生
+          <t xml:space="preserve">高效微纳米储能材料与产业化推进实验室•苏州  招收硕士研究生
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>华南理工大学</t>
+          <t>苏州科技大学</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工学 -&gt; 力学  -&gt; 工程力学</t>
+          <t xml:space="preserve">工学   </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-01-27 12:33</t>
+          <t>2022-02-18 09:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>http://muchong.com/t-15069810-1</t>
+          <t>http://muchong.com/t-15090001-1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">北京化工大学Jens Nielsen院士团队招收硕士研究生
-</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>北京化工大学</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工学 -&gt; 生物工程  -&gt; 遗传学</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2022-01-27 11:16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15069761-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">上海海洋大学接收调剂研究生
-</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>上海海洋大学</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农学 -&gt; 水产  -&gt; 渔业资源</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2022-01-28 04:05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15070397-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">上海海洋大学接收调剂研究生
-</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>上海海洋大学</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>理学 -&gt; 海洋科学  -&gt; 海洋生物学</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2022-01-28 04:04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15070396-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">上海海洋大学接收调剂研究生
-</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>上海海洋大学</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>理学 -&gt; 海洋科学  -&gt; 物理海洋学</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2022-01-28 04:01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15070395-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【韩国-5年制硕博连读招生】韩国光云大学-纳米应用中心光电子研究室-全奖招生
-</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>清华大学</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工学 -&gt; 电子科学与技术  -&gt; 电磁场与微波技术</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2022-01-28 09:53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15070528-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">上海海洋大学接收调剂研究生
-</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>上海海洋大学</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>理学 -&gt; 海洋科学  -&gt; 物理海洋学</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2022-01-28 04:01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15070395-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
           <t xml:space="preserve">高效微纳米储能材料与产业化推进实验室•苏州  招收硕士研究生
 </t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>苏州科技大学</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学   </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2022-01-29 11:49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15071244-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">高效微纳米储能材料与产业化推进实验室•苏州  招收硕士研究生
-</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>苏州科技大学</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2022-01-29 11:49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15071244-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">【韩国-5年制硕博连读招生】韩国光云大学-纳米应用中心光电子研究室-全奖招生
-</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>清华大学</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">工学 -&gt; 光学工程  </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2022-01-29 15:14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15071338-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">天津商业大学接收调剂研究生
-</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>天津商业大学</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工学 -&gt; 食品科学与工程  -&gt; 食品科学</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2022-02-04 10:22</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15073710-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">管理类专业A区/B区学校，调剂预约  仅限专硕！
-</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2022-02-13 09:51</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>http://muchong.com/t-15082689-1</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2022-02-18 09:48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090001-1</t>
         </is>
       </c>
     </row>
@@ -956,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,58 +669,201 @@
     <row r="2"/>
     <row r="3"/>
     <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>云南中医药大学考研调剂信息回顾（2021年）</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>云南中医药大学</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2022-01-28</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>http://www.chinakaoyan.com//tiaoji/schooldetail/id/32793.shtml</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>湖北经济学院考研调剂信息回顾（2021年）</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>湖北经济学院</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2022-01-28</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>http://www.chinakaoyan.com//tiaoji/schooldetail/id/32791.shtml</t>
-        </is>
-      </c>
-    </row>
-    <row r="13"/>
-    <row r="14"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>描述</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>发布时间</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>链接</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022年齐鲁工业大学数学，化学轻工招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>齐鲁工业大学国家重点实验室招收考数学，考化学轻工类专业课的学生联系方式：15953120632关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生或者以其他名义告诉你能交钱走导师后门等骗人信息，骗钱事小，错过最佳复试调剂时间才更遗憾！在交流的过程中如有涉及金钱信息等，切勿相信，谨防上当受骗！如需删除此调</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22811274.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022年东北林业大学材料与化工-林业工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>学校：东北林业大学教育部直属211高校985优势平台建设高校国家“双一流”建设一流学科建设高校黑龙江省唯一教育部直属高校学院：材料科学与工程学院教育部重点实验室所在学院教育部生物质材料科学与工程重点实验室学科：材料与化工-林业工程国家双一流建设学科 国家评估学科连续多年排名第一导师介绍：梁大鑫副教授，黑龙江省优青     工程院院士团队主要负责人之一     主要研究领域集中在智能仿生材料、生物质功能材料课题组在《Nano Letters》（影响因子12.777）、《ACS Applied Materials  Interfaces》（影响因子9.570）、《Nanoscal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22811271.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2022年广西大学动物营养与饲料科学招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>课题组长简介   周磊，男，广西大学动物科学技术学院教授、博士生导师，副院长。入选首批广西壮族自治区高层次人才、广西优秀专家、广西“百人计划”，获广西青年五四奖章，广西杰出青年科学基金，中国畜牧兽医学会动物遗传育种学分会理事、生理生化学分会理事，农业生物化学与分子生物学分会理事，亚热带农业生物资源保护与利用国家重点实验室固定研究人员。先后留学德国糖尿病研究中心（杜塞尔多夫）、法国原子能委员会（巴黎）、美国宾夕法尼亚大学（费城）。2013年作为学术带头人引进到广西大学，建立分子营养课题组。广西大学是双一流</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22811267.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022年沈阳工大化学工程招生调剂信息2022年沈阳工大化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>各科过国家线，要求考国考数学和英语。本课题组，一直从事高效率有机电致发光材料合成与设计。团队负责人先后主持国家自然科学基金等多项课题，在项目的支持下，近五年，团队成员相关成果发表在sci高水平论文共20篇。欢迎有志者的加入。联系方式：18698280301关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22811266.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022年华中科技大学环境工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>袁书珊，华中科技大学副教授，入选国家人才项目、湖北省高层次人才引进计划青年项目、武汉英才。2008年至2015年就读于四川大学高分科学与工程学院，先后获得学士和硕士学位。2018年12月博士毕业于比利时荷语鲁汶大学，博士毕业后继续在该校从事博后工作。先后以第一作者或通讯作者在Chemical Society Review, Journal of Materials Chemistry A, Journal of Membrane Science, Chemical Engineer Journal, Nanoscale等期刊发表文章47篇，授权专利5项，并担任Advanced Materials, Science Advances, Journal of the American Chemical Soci</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22811264.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2022年沈阳工大化学工程招生调剂信息2022年沈阳工大化学工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>各科过国家线，要求考国考数学和英语。本课题组，一直从事高效率有机电致发光材料合成与设计。团队负责人先后主持国家自然科学基金等多项课题，在项目的支持下，近五年，团队成员相关成果发表在sci高水平论文共20篇。欢迎有志者的加入。联系方式：18698280301关注公众号：51考研网，获取更多复试调剂资讯！调剂信息来自各种渠道整理以及导师向我们提交的招生申请，没有辨别信息有效真实性，如果对本信息感兴趣，可到院校官网进行核实。同时提醒广大考生，在复试调剂阶段，难免有一些不法分子，抓住考研学子求学心切，假冒院校导师名义招生</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22811266.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022年华中科技大学环境工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>袁书珊，华中科技大学副教授，入选国家人才项目、湖北省高层次人才引进计划青年项目、武汉英才。2008年至2015年就读于四川大学高分科学与工程学院，先后获得学士和硕士学位。2018年12月博士毕业于比利时荷语鲁汶大学，博士毕业后继续在该校从事博后工作。先后以第一作者或通讯作者在Chemical Society Review, Journal of Materials Chemistry A, Journal of Membrane Science, Chemical Engineer Journal, Nanoscale等期刊发表文章47篇，授权专利5项，并担任Advanced Materials, Science Advances, Journal of the American Chemical Soci</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22811264.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/scrap_python/info.xlsx
+++ b/scrap_python/info.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,2076 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>http://muchong.com/t-15090001-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">浙江海洋接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>浙江海洋</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农学 -&gt; 农业推广[专]  -&gt; 设施农业</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2022-02-18 19:15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091129-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辽宁省功能化合物重点实验室  工科1比1等额复试 过国家A区线即可
+</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>渤海大学</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 环境科学与工程  -&gt; 环境工程</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2022-02-18 18:33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091069-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">渤海大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>渤海大学</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 化学工程与技术  -&gt; 化学工艺</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2022-02-18 17:53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091019-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">四川轻化工大学土木工程学院污泥处理处置-土壤修复-污水处理课题组调剂招生
+</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>四川理工</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 环境科学与工程  -&gt; 环境工程</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2022-02-18 16:41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090833-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">北京工商大学 辛菲老师组 接收高分子相关专业硕士调剂申请
+</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>北京工商大学</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 材料科学与工程  -&gt; 材料加工工程</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-02-18 15:58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090755-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">欢迎调剂五邑大学化学工程与工艺/材料化工硕士研究生（工科硕士点，初试需考数学）
+</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>五邑大学</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 化学工程与技术  -&gt; 应用化学</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-02-18 15:48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090720-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">课题组简介
+</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>淮阴工学院</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">农学 -&gt; 农业推广[专]  </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2022-02-18 15:26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090657-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福州大学郑远辉课题组急招物理背景2022届考核制博士！！！
+</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>福州大学</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学 -&gt; 物理学  </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2022-02-18 15:19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090642-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福州大学郑远辉课题组急招物理背景2022届考核制博士！！！
+</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>福州大学</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学 -&gt; 物理学  </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2022-02-18 15:14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090625-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福州大学郑远辉研究员课题组招收2022届-物理背景考核制博士！！！
+</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>福州大学</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 物理学  -&gt; 凝聚态物理</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2022-02-18 15:10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090594-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青岛科大接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>青岛科大</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 食品科学与工程  -&gt; 食品科学</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2022-02-18 14:41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090551-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022年大连医科大学袁予辉教授课题组考研调剂信息
+</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>大连医大</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 生物学  -&gt; 细胞生物学</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2022-02-18 13:06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15090379-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">江苏大学化学化工学院硕士招生贴
+</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>江苏大学</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 化学  -&gt; 无机化学</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2022-02-19 18:47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092152-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">安徽农大接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>安徽农大</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农学 -&gt; 作物学  -&gt; 作物栽培学与耕作学</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2022-02-19 16:29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091991-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青岛科大多功能MOF材料催化组招收硕士调剂生和考生，学硕专硕
+</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>青岛科大</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 化学  -&gt; 无机化学</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2022-02-19 16:15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091956-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">重庆科技学院石油与天然气工程学院黄小亮团队2022年接收调剂研究生（名额5人）
+</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>重庆科技学院</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 石油与天然气工程  -&gt; 油气田开发工程</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2022-02-19 15:58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091937-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辽宁工程技术大学矿业学院朱志洁课题组招收优秀硕士研究生
+</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>辽宁工程技术大学</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 矿业工程  -&gt; 采矿工程</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2022-02-19 15:57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091936-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福州大学郑远辉研究员招收硕士期间是物理学相关专业考核制博士1-2名
+</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>福州大学</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学 -&gt; 物理学  </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2022-02-19 15:51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091930-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022年赣南师范大学计算成像课题组招收/调剂数学专业学术硕士和电子信息专业硕士
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 数学  -&gt; 计算数学</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2022-02-19 15:24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091900-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">天津商业大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>天津商业大学</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 食品科学与工程  -&gt; 食品科学</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2022-02-19 15:10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091891-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">阜阳师范接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>阜阳师范</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2022-02-19 15:04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091886-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辽宁工程技术大学力学与工程学院肖晓春教授课题招收优秀硕士研究生
+</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>辽宁工程技术大学</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学   </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2022-02-19 14:22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091825-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">温州大学智能网络创新研究中心接收一志愿和调剂研究生（学硕）
+</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>温州大学</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学   </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2022-02-19 13:26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091764-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【韩国-5年制硕博连读招生】韩国光云大学-电子类/光学类-全奖招生
+</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>朝阳二外</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 光学工程  </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2022-02-19 13:14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091741-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">高效微纳米储能材料与产业化推进实验室•苏州  招收硕士研究生
+</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>苏州科技大学</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学   </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2022-02-19 13:08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091727-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022年太原科技大学力学专业接收工学调剂生
+</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>太原科大</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 力学  </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2022-02-19 12:29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091707-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">机器人及智能装备研究院接收调剂！
+</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>天津职业技术师范大学</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 机械工程  -&gt; 机械电子工程</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2022-02-19 12:11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091699-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">沈阳工大接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>沈阳工大</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 化学工程与技术  -&gt; 化学工程</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2022-02-19 10:13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091561-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中南林业科大接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>中南林业科大</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 化学工程与技术  -&gt; 化学工程</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2022-02-19 10:11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091560-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">南方科技大学薛亚辉课题组诚聘微纳米力学、低维和能源材料方向硕士生
+</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>南方科技大学</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 力学  </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2022-02-19 09:58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091546-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">五邑大学接收2022调剂研究生，环境，给排水，生物，考数学，第一志愿08开头
+</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>五邑大学</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 环境科学与工程  -&gt; 环境工程</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2022-02-19 09:31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091504-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">济南大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>济南大学</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 机械工程  -&gt; 机械制造及其自动化</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2022-02-19 08:10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15091425-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">辽宁石化接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>辽宁石化</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 化学  -&gt; 分析化学</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2022-02-20 19:38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15093054-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022东北石油大学土木类环境类动力类建筑类
+</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>东北石油大学</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 土木工程  -&gt; 结构工程</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2022-02-20 19:29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15093050-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">江西科技师范大学 纳米功能材料课题组2022年计划招收研究生
+</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>江西科技师范大学</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学 -&gt; 材料科学与工程  </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2022-02-20 19:26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15093046-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">全奖博士丨香港中文大学（深圳）招收计算成像 博士生，博后
+</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>香港中文大学</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 光学工程  -&gt; 计算机应用技术</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2022-02-20 18:43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15093015-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022年东北石油大学卢祥国教授课题组硕士研究生招生（含调剂）
+</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>东北石油大学</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 石油与天然气工程  </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2022-02-20 18:21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15093004-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">五邑大学 刘磊老师招食品，材料与化工专硕研究生，接受调剂
+</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学   </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2022-02-20 17:32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092949-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">华南农业大学（双一流）生物质工程研究院招收22年调剂硕士生（化工/应化......）
+</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>华南农业大学</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 化学工程与技术  </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2022-02-20 17:13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092933-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">华南农业大学（双一流）生物质工程研究院招收22年调剂硕士生（催化/化工/应化...）
+</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>华南农业大学</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 化学工程与技术  </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2022-02-20 16:57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092920-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">绍兴文理学院接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>绍兴文理学院</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 化学  -&gt; 高分子化学与物理</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2022-02-20 16:03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092878-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">华南农业大学接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>华南农业大学</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 化学工程与技术  -&gt; 化学工程</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2022-02-20 15:36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092862-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">上海工程接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>上海工程</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 材料科学与工程  -&gt; 材料加工工程</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2022-02-20 15:03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092845-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">东北石油大学机械工程学科接收2022级硕士研究生（学硕、专硕）调剂，名额80+
+</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>东北石油大学</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 机械工程  </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2022-02-20 14:43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092827-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">河南理工接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>河南理工</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 材料科学与工程  -&gt; 材料学</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2022-02-20 14:28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092800-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022年江南大学纳米复合与能源材料课题组招收硕博研究生
+</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>江南大学</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学 -&gt; 材料科学与工程  </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2022-02-20 13:59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092763-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">福州大学郑远辉课题组招收优秀硕士生3名！！！
+</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>福州大学</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">理学 -&gt; 化学  </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2022-02-20 12:45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092720-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">南通大学国家级人才领衔团队欢迎报考和调剂学硕、专硕研究生加入
+</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>南通大学</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">医学 -&gt; 公共卫生[专]  </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2022-02-20 12:18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092705-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">南通大学国家级人才领衔团队欢迎报考和调剂学硕、专硕研究生加入
+</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>南通大学</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>医学 -&gt; 临床医学  -&gt; 临床检验诊断学</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2022-02-20 12:18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092705-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">国家“双一流”建设高校-南京林业大学中比国际联合实验室接收2022年硕士调剂生
+</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>南京林大</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 林业工程  -&gt; 林产化学加工工程</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2022-02-20 11:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092670-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">湖南科技大学接受调剂生
+</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>湖南科大</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 材料科学与工程  -&gt; 材料学</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2022-02-20 11:23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092663-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">高效微纳米储能材料与产业化推进实验室•苏州  招收硕士研究生
+</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>苏州科技大学</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学   </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2022-02-20 11:19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092661-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">天津科技大学植物资源精细化工与化学团队介绍【0856材料化工专业】
+</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>天津科大</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 工程[专]  -&gt; 材料工程</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2022-02-20 11:13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092656-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">大连海洋大学海洋生物学与生物技术实验室2022招生信息
+</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>大连海洋大学</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">农学 -&gt; 水产  </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2022-02-20 10:32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092596-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">东北石油大学土木类环境类动力类建筑类
+</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>东北石油大学</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 土木工程  -&gt; 结构工程</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2022-02-20 10:06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092564-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">安徽医科大学肿瘤学方向海归导师接受2022硕士调剂生2名
+</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>安徽医科大</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 生物学  -&gt; 细胞生物学</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2022-02-20 10:05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092560-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">江西理工大学新材料接收调剂研究生
+</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>江西理工</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">工学   </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2022-02-20 09:46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092542-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">赵瑞奇课题组2022年拟招收材料、物理、化学等相关背景专业的4-6名调剂生
+</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>河南理工</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 材料科学与工程  -&gt; 材料物理与化学</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2022-02-20 09:41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092537-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022年江苏海洋大学海洋科学等方向招收硕士研究生1名
+</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>淮海工学院</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 海洋科学  -&gt; 海洋生物学</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2022-02-20 09:31</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092531-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">长春工业大学诚招2-3名调剂生
+</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>长春工业大学</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 化学  -&gt; 无机化学</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2022-02-20 08:12</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092469-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">曲阜师范大学泰山学者团队现招收有机化学、无机化学专业硕士研究生 有意者抓紧联系！
+</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>曲阜师大</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 化学  -&gt; 有机化学</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2022-02-20 06:50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092455-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022渤海大学食品科学与工程学院粮油课题组招收食品科学研究生调剂
+</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>渤海大学</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工学 -&gt; 食品科学与工程  -&gt; 粮食、油脂及植物蛋白工程</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2022-02-20 02:23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092434-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">【安庆师范大学】张传磊课题组接收2022年化学或材料方向考研调剂生
+</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>安庆师范</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>理学 -&gt; 化学  -&gt; 无机化学</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2022-02-20 00:18</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>http://muchong.com/t-15092404-1</t>
         </is>
       </c>
     </row>
@@ -626,7 +2696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,9 +2736,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -680,7 +2747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,6 +2931,28 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022年华中科技大学环境工程招生调剂信息</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>袁书珊，华中科技大学副教授，入选国家人才项目、湖北省高层次人才引进计划青年项目、武汉英才。2008年至2015年就读于四川大学高分科学与工程学院，先后获得学士和硕士学位。2018年12月博士毕业于比利时荷语鲁汶大学，博士毕业后继续在该校从事博后工作。先后以第一作者或通讯作者在Chemical Society Review, Journal of Materials Chemistry A, Journal of Membrane Science, Chemical Engineer Journal, Nanoscale等期刊发表文章47篇，授权专利5项，并担任Advanced Materials, Science Advances, Journal of the American Chemical Soci</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.51kywang.com/51kaoyanwang/vip_doc/22811264.html</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
